--- a/03_plots_and_tables/eff_size.xlsx
+++ b/03_plots_and_tables/eff_size.xlsx
@@ -437,19 +437,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5539818754306594</v>
+        <v>0.5199489133529803</v>
       </c>
       <c r="G2">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H2">
         <v>432</v>
       </c>
       <c r="I2">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="J2">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -480,19 +480,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4000151744612633</v>
+        <v>0.4650481156344318</v>
       </c>
       <c r="G3">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H3">
         <v>432</v>
       </c>
       <c r="I3">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="J3">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -523,19 +523,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3770896342127293</v>
+        <v>0.4342168005843653</v>
       </c>
       <c r="G4">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H4">
         <v>432</v>
       </c>
       <c r="I4">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,19 +566,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3759543120715933</v>
+        <v>0.4306892822680862</v>
       </c>
       <c r="G5">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H5">
         <v>432</v>
       </c>
       <c r="I5">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="J5">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3758331648918989</v>
+        <v>0.4179308383910459</v>
       </c>
       <c r="G6">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H6">
         <v>432</v>
       </c>
       <c r="I6">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="J6">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3023018884251871</v>
+        <v>0.3578518576313851</v>
       </c>
       <c r="G7">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H7">
         <v>432</v>
       </c>
       <c r="I7">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -695,23 +695,23 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2499147090932292</v>
+        <v>0.3194907760216629</v>
       </c>
       <c r="G8">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H8">
         <v>432</v>
       </c>
       <c r="I8">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="J8">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>moderate</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1890317034203205</v>
+        <v>0.2552535432324297</v>
       </c>
       <c r="G9">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H9">
         <v>432</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="J9">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -781,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1356251633805158</v>
+        <v>0.1938758126568744</v>
       </c>
       <c r="G10">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H10">
         <v>432</v>
       </c>
       <c r="I10">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="J10">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -818,25 +818,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.00223</v>
+        <v>4e-05</v>
       </c>
       <c r="E11">
-        <v>0.00223</v>
+        <v>4e-05</v>
       </c>
       <c r="F11">
-        <v>0.06440144436309804</v>
+        <v>0.1103447533986092</v>
       </c>
       <c r="G11">
-        <v>1823</v>
+        <v>951</v>
       </c>
       <c r="H11">
         <v>432</v>
       </c>
       <c r="I11">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="J11">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>

--- a/03_plots_and_tables/eff_size.xlsx
+++ b/03_plots_and_tables/eff_size.xlsx
@@ -431,25 +431,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.602890130067367e-152</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.602890130067367e-151</v>
       </c>
       <c r="F2">
-        <v>0.5199489133529803</v>
+        <v>0.5539818754306594</v>
       </c>
       <c r="G2">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H2">
         <v>432</v>
       </c>
       <c r="I2">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="J2">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -474,25 +474,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.861083563356462e-80</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9.305417816782312e-80</v>
       </c>
       <c r="F3">
-        <v>0.4650481156344318</v>
+        <v>0.4000151744612633</v>
       </c>
       <c r="G3">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H3">
         <v>432</v>
       </c>
       <c r="I3">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="J3">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -517,25 +517,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.04451814193797e-71</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3.481727139793232e-71</v>
       </c>
       <c r="F4">
-        <v>0.4342168005843653</v>
+        <v>0.3770896342127293</v>
       </c>
       <c r="G4">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H4">
         <v>432</v>
       </c>
       <c r="I4">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="J4">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,25 +560,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.746983619870634e-71</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.090072153826421e-71</v>
       </c>
       <c r="F5">
-        <v>0.4306892822680862</v>
+        <v>0.3759543120715933</v>
       </c>
       <c r="G5">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H5">
         <v>432</v>
       </c>
       <c r="I5">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="J5">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -603,25 +603,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.04503607691321e-71</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.090072153826421e-71</v>
       </c>
       <c r="F6">
-        <v>0.4179308383910459</v>
+        <v>0.3758331648918989</v>
       </c>
       <c r="G6">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H6">
         <v>432</v>
       </c>
       <c r="I6">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="J6">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -646,25 +646,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9.866847395273369e-47</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.644474565878895e-46</v>
       </c>
       <c r="F7">
-        <v>0.3578518576313851</v>
+        <v>0.3023018884251871</v>
       </c>
       <c r="G7">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H7">
         <v>432</v>
       </c>
       <c r="I7">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J7">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -689,29 +689,29 @@
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.743599832749035e-32</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.490856903927192e-32</v>
       </c>
       <c r="F8">
-        <v>0.3194907760216629</v>
+        <v>0.2499147090932292</v>
       </c>
       <c r="G8">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H8">
         <v>432</v>
       </c>
       <c r="I8">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="J8">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>small</t>
         </is>
       </c>
     </row>
@@ -732,25 +732,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.795746567154607e-19</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3.494683208943259e-19</v>
       </c>
       <c r="F9">
-        <v>0.2552535432324297</v>
+        <v>0.1890317034203205</v>
       </c>
       <c r="G9">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H9">
         <v>432</v>
       </c>
       <c r="I9">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="J9">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -775,25 +775,25 @@
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.191830871153978e-10</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.32425652350442e-10</v>
       </c>
       <c r="F10">
-        <v>0.1938758126568744</v>
+        <v>0.1356251633805158</v>
       </c>
       <c r="G10">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H10">
         <v>432</v>
       </c>
       <c r="I10">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -818,25 +818,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>4e-05</v>
+        <v>0.002226857638990589</v>
       </c>
       <c r="E11">
-        <v>4e-05</v>
+        <v>0.002226857638990589</v>
       </c>
       <c r="F11">
-        <v>0.1103447533986092</v>
+        <v>0.06440144436309804</v>
       </c>
       <c r="G11">
-        <v>951</v>
+        <v>1823</v>
       </c>
       <c r="H11">
         <v>432</v>
       </c>
       <c r="I11">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="J11">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>

--- a/03_plots_and_tables/eff_size.xlsx
+++ b/03_plots_and_tables/eff_size.xlsx
@@ -492,7 +492,7 @@
         <v>0.36</v>
       </c>
       <c r="J3">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>0.21</v>
       </c>
       <c r="J8">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>0.02</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
